--- a/week-1/Solutions/1-4-B-more-complex-calculations/finance-pulse-check-solutions.xlsx
+++ b/week-1/Solutions/1-4-B-more-complex-calculations/finance-pulse-check-solutions.xlsx
@@ -5,16 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\2-4-more-complex-calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\data-analytics-lectures\week-1\Solutions\1-4-B-more-complex-calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24677" windowHeight="9343"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24675" windowHeight="9345"/>
   </bookViews>
   <sheets>
-    <sheet name="present-value-of-annuity" sheetId="1" r:id="rId1"/>
-    <sheet name="monthly-mortgage-payment" sheetId="2" r:id="rId2"/>
-    <sheet name="months-to-pay" sheetId="3" r:id="rId3"/>
+    <sheet name="readme" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,70 +24,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Present value of annuity</t>
+    <t xml:space="preserve">https://docs.google.com/presentation/d/1MtVzREah_Mb9yy_vIybZ0CYyy1dsZ88vZIB0pwEeEu0/edit#slide=id.g5d1ca39295_0_74 </t>
   </si>
   <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Interest rate</t>
-  </si>
-  <si>
-    <t>Periods</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Term in years</t>
-  </si>
-  <si>
-    <t>Down payment</t>
-  </si>
-  <si>
-    <t>Estimated monthly mortgage payment</t>
-  </si>
-  <si>
-    <t>Monthly payment</t>
-  </si>
-  <si>
-    <t>Loan amount</t>
-  </si>
-  <si>
-    <t>Compounding periods per year</t>
-  </si>
-  <si>
-    <t>Periods (in months)</t>
-  </si>
-  <si>
-    <t>Periods (in years)</t>
-  </si>
-  <si>
-    <t>Home cost</t>
-  </si>
-  <si>
-    <t>Months to pay back a loan</t>
+    <t>Link to deck:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,16 +45,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,25 +72,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,231 +358,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.23046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <f>PV(B5,B6,-B4)</f>
-        <v>307449.02053765673</v>
-      </c>
-      <c r="C7" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B7)</f>
-        <v>=PV(B5,B6,-B4)</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="19.53515625" customWidth="1"/>
-    <col min="2" max="2" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.84375" customWidth="1"/>
-    <col min="5" max="5" width="15.69140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5">
-        <v>250000</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4">
-        <f>PMT(B5/12,B6*12,-B8)</f>
-        <v>895.90857167508227</v>
-      </c>
-      <c r="G4" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(F4)</f>
-        <v>=PMT(B5/12,B6*12,-B8)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5">
-        <f>B4*0.15</f>
-        <v>37500</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B7)</f>
-        <v>=B4*0.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
-        <f>B4-B7</f>
-        <v>212500</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B8)</f>
-        <v>=B4-B7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="19.23046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="10">
-        <f>NPER(B5/12,B6,-B4)</f>
-        <v>163.67569943623195</v>
-      </c>
-      <c r="C9" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B9)</f>
-        <v>=NPER(B5/12,B6,-B4)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="9">
-        <f>B9/12</f>
-        <v>13.639641619685996</v>
-      </c>
-      <c r="C10" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B10)</f>
-        <v>=B9/12</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" location="slide=id.g5d1ca39295_0_74 "/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>